--- a/results/greedy_randomize.xlsx
+++ b/results/greedy_randomize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,18 +468,18 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>myciel3.col.txt</t>
+          <t>anna.col</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.478195190429688e-05</v>
+        <v>0.0003328323364257812</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[7, 9, 5, 0], [4, 1, 10], [8, 3, 2], [6]]</t>
+          <t>[[54, 21, 86, 58, 31, 1, 42, 104, 61, 103, 0, 115, 27, 120, 131, 92, 83, 97, 62, 30, 13, 5, 29, 87, 67, 59, 65, 50, 55, 52, 41, 128, 49, 74, 16, 126, 34, 15, 2, 43, 8, 113, 125, 81, 3, 66, 112, 24, 106, 110, 124, 118, 102, 18, 93, 70, 14, 64, 47, 25, 4, 119, 107, 38, 10, 22, 85, 37, 109, 79], [76, 80, 23, 44, 136, 130, 127, 39, 77, 82, 96, 78, 9, 46, 117, 95, 7, 51, 40, 68, 116, 45, 121, 57, 111, 99, 101, 123, 89, 28, 133, 11, 26, 12], [72, 73, 60, 108, 53, 36, 114, 75, 48, 105], [69, 35, 122, 129, 33], [132, 56, 137, 91], [20, 134, 32, 100], [90, 19, 63, 84], [98, 71], [6, 94, 88], [135], [17]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -497,18 +497,18 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>inithx.i.1.col</t>
+          <t>le450_15b.col</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01285886764526367</v>
+        <v>0.003832817077636719</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[[734, 584, 207, 351, 737, 249, 161, 825, 834, 620, 164, 352, 48, 125, 678, 303, 306, 505, 422, 213, 815, 591, 524, 709, 177, 335, 643, 239, 595, 398, 128, 330, 323, 326, 651, 743, 628, 201, 770, 390, 312, 611, 459, 386, 659, 713, 513, 370, 530, 604, 763, 243, 93, 389, 589, 283, 421, 196, 569, 725, 719, 372, 553, 369, 343, 234, 660, 131, 110, 495, 391, 120, 435, 231, 130, 600, 105, 808, 799, 636, 359, 629, 123, 730, 189, 782, 508, 436, 573, 592, 272, 360, 412, 475, 714, 469, 670, 567, 278, 175, 425, 707, 811, 148, 220, 661, 408, 514, 430, 233, 167, 464, 687, 331, 802, 615, 667, 715, 769, 356, 187, 162, 452, 631, 596, 441, 810, 645, 716, 179, 608, 618, 842, 691, 106, 729, 157, 295, 721, 861, 748, 463, 570, 764, 718, 271, 160, 684, 454, 833, 166, 518, 601, 268, 316, 344, 332, 416, 602, 127, 556, 532, 384, 150, 855, 290, 619, 586, 417, 563, 153, 185, 371, 152, 816, 242, 839, 477, 298, 321, 830, 428, 461, 439, 662, 395, 378, 163, 585, 849, 453, 613, 712, 817, 761, 137, 159, 385, 776, 516, 203, 474, 732, 523, 805, 806, 143, 599, 823, 156, 466, 394, 266, 217, 557, 655, 358, 752, 503, 751, 472, 147, 140, 735, 214, 794, 488, 787, 470, 777, 666, 211, 202, 288, 790, 92, 803, 531, 345, 577, 314, 551, 334, 480, 539, 154, 759, 114, 813, 756, 537, 99, 471, 724, 347, 149, 377, 547, 722, 690, 857, 91, 819, 779, 117, 648, 485, 339, 859, 362, 229, 248, 199, 490, 622, 758, 633, 429, 413, 598, 455, 300, 432, 305, 564, 431, 580, 180, 426, 804, 230, 768, 581, 228, 443, 535, 446, 225, 134, 66, 263, 668, 184, 299, 649, 632, 677, 194, 226, 862, 653, 109, 562, 726, 762, 285, 818, 700, 411, 280, 155, 820, 100, 238, 797, 222, 837, 479, 498, 170, 319, 294, 838, 447, 445, 775, 121, 558, 183, 642, 705, 310, 379, 221, 212, 197, 448, 342, 349, 382, 205, 433, 438, 327, 240, 606, 767, 483, 510, 511, 525, 353, 460, 434, 168, 34, 536, 176, 450, 182, 486, 113, 397, 458, 309, 437, 302, 366, 174, 617, 318, 773, 193, 494, 676, 293, 686, 190, 487, 680, 566, 809, 124, 522, 244, 710, 365, 409, 245, 560, 102, 652, 481, 415, 579, 528, 368, 792, 482, 329, 340, 380, 791, 98, 698, 407, 621, 739, 354, 96, 521, 402, 515, 274, 550, 850, 145, 554, 292, 682, 405, 812, 555, 284, 467, 95, 258, 246, 827, 139, 527, 856, 297, 468, 853, 501, 119, 860, 387, 236, 754, 689, 685, 663, 624, 638, 646, 766, 484, 780, 492, 210, 135, 227, 835, 772, 456, 796, 504, 665, 552, 393, 374, 693, 215, 814, 798, 534, 418, 757, 410, 489, 264, 847, 296, 654, 126, 423, 259, 801, 449, 647, 499, 502, 457, 223, 325, 363, 701, 832, 821, 247, 740, 526, 171, 324, 103, 664, 188, 307, 736, 251, 496, 519, 146, 741, 291, 269, 807, 320, 688, 195, 262, 315, 122, 414, 711, 204, 218, 178], [520, 191, 559, 694, 697, 462, 824, 138, 255, 744, 506, 337, 746, 542, 706, 118, 392, 634, 517, 133, 61, 699, 491, 720, 731, 440, 765, 65, 476, 388, 115, 451, 512, 749, 728, 753, 788, 639, 793, 657, 785, 683, 800, 181, 656, 186, 465, 727, 630, 529, 627, 346, 473, 733, 696, 442, 509, 478, 36, 738], [578, 39, 350, 90, 46, 679, 51, 616, 637, 444], [85, 22], [0, 29], [497, 67, 250, 5, 59, 538, 64, 355, 172, 338, 507, 644, 144, 151, 493, 635, 641, 97, 533], [81, 692, 56, 70, 50, 42, 37, 381, 704, 32, 336, 500, 795, 695, 640], [375, 583, 40, 609, 57, 116, 605, 232, 597, 279, 822, 276, 708, 612, 610, 590, 289, 322, 200, 216, 267, 209, 361, 235, 47, 376, 198, 282, 854, 287, 281, 224, 136, 219, 614, 373, 588, 650, 341, 328, 364, 594, 206, 658, 858, 35, 367], [9, 55, 68, 574, 742, 778, 760, 549, 784, 783, 789, 745, 747, 774, 565], [11, 317, 717, 829, 848, 401, 576, 836, 548, 675, 261, 132, 845, 846], [87, 94], [75, 4], [241, 270, 165, 568, 38, 63, 669, 771, 406, 348, 561, 44, 755, 141, 587, 33, 840, 173, 607], [313, 12, 403, 575, 863, 69, 723, 260, 681, 843, 781, 831, 52, 844, 786], [237, 277, 273, 275, 169, 357, 593, 582, 603, 129], [19, 10], [104, 8, 572, 673, 43, 750], [256, 14, 62, 571, 852, 703, 41, 841], [78, 192, 158], [208, 111], [76, 80], [17, 7], [20, 13], [253, 419, 424, 544, 86, 826, 702, 420], [21, 3], [252, 404, 49, 82, 60, 674], [79, 265, 112, 286], [23, 88], [24, 1], [31, 2], [26, 15], [18, 83], [30, 6], [333, 257, 623, 84, 851], [16], [427, 541, 304, 311, 626, 301, 828, 142], [27], [73], [53], [543, 254, 396, 672], [74], [89], [77], [108], [540, 400, 58, 625], [45, 71, 308, 671], [383, 545], [25], [28], [72], [101], [54, 546], [399], [107]]</t>
+          <t>[[246, 368, 365, 227, 290, 305, 308, 10, 347, 321, 282, 362, 323, 392, 8, 185, 339, 389, 345, 30, 383, 344, 100, 330, 235, 32, 33, 102, 26, 326, 212, 91, 206, 127, 28, 41, 39, 381, 240, 103, 256, 213, 346, 400, 390, 401, 438, 47, 90, 98, 324, 115, 441, 68, 406, 233], [272, 255, 292, 318, 258, 128, 210, 358, 16, 160, 150, 192, 273, 78, 249, 51, 3, 186, 279, 157, 288, 369, 447, 226, 181, 245, 361, 172, 422, 309, 397, 158, 84, 23, 341, 367, 352, 105, 59, 58, 107, 291, 433], [152, 375, 306, 174, 223, 303, 188, 12, 70, 260, 179, 222, 110, 244, 211, 385, 274, 5, 165, 359, 162, 270, 409, 50, 310, 49, 217, 302, 106, 432, 196, 56, 204, 444, 142], [393, 403, 170, 80, 236, 96, 224, 440, 448, 377, 373, 277, 25, 63, 44, 24, 298, 202, 153, 173, 387, 19, 355, 414, 285, 161, 388, 176, 446], [52, 189, 0, 198, 194, 73, 313, 37, 216, 299, 434, 169, 424, 307, 241, 209, 178, 38, 314, 65, 229, 278, 294, 248, 234, 283, 363, 316, 382, 349, 380], [402, 232, 94, 182, 404, 99, 418, 205, 60, 72, 230, 129, 109, 97, 149, 135, 239, 354, 177, 412, 407, 439, 132, 139, 408, 267, 133], [263, 29, 328, 120, 253, 265, 64, 15, 264, 36, 147, 42, 317, 14, 95, 126, 280, 27, 395, 66, 276, 21, 372, 296, 421, 155, 394, 93, 159], [396, 214, 190, 315, 386, 104, 201, 243, 312, 289, 342, 167, 251, 193, 136, 43, 87, 417, 62, 429, 18, 92, 430, 183, 293, 405, 119], [121, 112, 114, 250, 356, 261, 48, 247, 9, 420, 423, 281, 219, 275, 225, 228, 195, 411, 143, 208, 125], [13, 415, 360, 85, 175, 371, 31, 57, 74, 35, 146, 184, 329, 378, 334, 140, 141, 257], [287, 410, 131, 45, 271, 71, 4, 262, 221, 254, 416, 55, 370, 437, 337, 353, 350, 17, 40], [300, 343, 137, 431, 67, 379, 237, 171, 156, 218, 82, 154, 327, 54, 301, 231, 108, 2, 191], [428, 295, 238, 81, 398, 144, 203, 331, 7, 79, 376, 166, 319, 101, 348, 320, 61, 436], [242, 69, 200, 53, 399, 124, 122, 336, 113, 197, 34, 335, 20, 22, 6, 111, 11], [83, 425, 116, 442, 338, 445, 322, 364, 134, 413, 259, 130, 340, 435, 391, 89, 187, 138], [333, 220, 168, 148, 252, 118, 199, 151, 304, 419, 1, 123, 117], [268, 164, 86, 443, 77, 180, 215, 75, 46, 284, 332, 374, 76, 325], [266, 286, 366, 88, 163, 427, 269, 357, 297, 351, 311], [384, 449, 426, 145, 207]]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,27 +517,27 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>queen11_11.col</t>
+          <t>le450_5a.col</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003509521484375</v>
+        <v>0.003710031509399414</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[[94, 42, 78, 103, 49, 0, 76, 57, 14], [105, 91, 73, 32, 4, 56, 118, 38, 11], [50, 36, 89, 71, 13, 8, 55, 87, 114, 106], [80, 111, 108, 27, 46, 59, 33, 18, 74], [100, 61, 113, 79, 16, 98, 48, 22, 75, 7], [83, 20, 92, 66, 45, 24, 41, 3, 115, 109], [81, 47, 72, 19, 110, 5, 97, 34], [119, 39, 21, 62, 90, 25, 77, 104], [15, 6, 86, 88, 107, 43, 67, 29, 60], [51, 26, 9, 85, 17, 93, 112, 58], [70, 31, 99, 2, 65, 52, 116, 84], [44, 23, 37, 64, 10, 96, 82, 101, 69], [1, 63, 68, 54, 40, 102], [12, 53, 28, 117, 35], [120, 95, 30]]</t>
+          <t>[[185, 294, 27, 328, 7, 36, 31, 367, 84, 346, 91, 20, 145, 327, 350, 426, 6, 355, 221, 308, 357, 376, 413, 446, 352, 341, 1, 306, 380, 395, 206, 266, 188, 318, 280, 296, 96, 81, 143, 200, 161, 30, 117, 386, 193, 303, 233, 13, 351, 237, 53, 387, 261, 131, 121, 431, 172, 368, 447, 15, 86], [23, 390, 165, 444, 428, 248, 243, 388, 374, 174, 215, 14, 389, 358, 300, 4, 214, 115, 343, 64, 251, 164, 133, 100, 378, 316, 138, 334, 422, 394, 311, 169, 375, 69, 244, 126, 153, 435, 224, 434, 10, 54, 44, 340, 249, 94, 339, 363, 203, 151, 344, 119, 28, 274], [63, 411, 180, 89, 88, 192, 58, 191, 349, 330, 162, 74, 37, 132, 113, 384, 198, 114, 370, 223, 273, 309, 78, 418, 158, 417, 108, 437, 403, 204, 397, 150, 364, 19, 95, 106, 178, 118, 87, 288, 333, 186, 184, 382, 423, 373, 430, 76, 68, 22, 24, 247, 322, 312], [256, 49, 189, 163, 381, 292, 366, 33, 146, 301, 70, 171, 218, 141, 415, 326, 140, 409, 212, 175, 159, 404, 166, 347, 414, 255, 227, 196, 67, 253, 111, 234, 336, 295, 219, 112, 226, 416, 12, 137, 152, 441, 265, 230, 202, 232, 167, 56, 286], [190, 225, 425, 331, 92, 282, 21, 285, 83, 432, 361, 97, 125, 445, 305, 291, 17, 201, 263, 356, 443, 75, 315, 80, 136, 272, 77, 442, 60, 176, 436, 420, 217, 61, 181, 310, 335, 319, 82, 438, 402, 267, 257, 120, 400, 170, 252, 259], [147, 72, 332, 440, 220, 32, 110, 379, 57, 41, 47, 242, 313, 228, 302, 34, 254, 359, 419, 278, 371, 16, 29, 317, 449, 424, 168, 238, 39, 297, 105, 399, 116, 246, 51, 207, 408, 135, 149, 329, 50, 353, 281, 321, 298, 396], [9, 109, 66, 194, 362, 372, 59, 320, 55, 240, 391, 405, 369, 208, 5, 276, 26, 90, 427, 205, 73, 129, 421, 433, 448, 142, 299, 401, 385, 79, 235, 8, 279, 62, 275, 98, 239, 323], [406, 439, 222, 182, 262, 236, 148, 264, 211, 412, 157, 231, 104, 144, 103, 268, 429, 187, 290, 195, 127, 258, 407, 342, 107, 123, 277, 377, 337, 52, 216, 2], [393, 11, 199, 43, 3, 325, 183, 314, 383, 229, 38, 35, 42, 160, 398, 177, 304, 283, 213, 348, 365, 48, 139, 124, 65, 173], [122, 134, 93, 156, 155, 345, 45, 210, 260, 197, 269, 18, 85, 360, 25, 307, 128, 0, 40, 392, 245, 46], [209, 102, 250, 130, 289, 324, 241, 271, 287, 338, 101], [410, 154, 99, 354, 179, 284, 293, 71, 270]]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,27 +546,27 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>mulsol.i.1.col</t>
+          <t>miles1000.col</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007791519165039062</v>
+        <v>0.0005199909210205078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[[119, 150, 161, 76, 190, 71, 67, 57, 193, 189, 126, 191, 100, 99, 157, 144, 125, 162, 68, 140, 182, 136, 83, 105, 101, 142, 104, 177, 173, 194, 163, 121, 185, 78, 127, 88, 196, 133, 118, 132, 129, 183, 187, 85, 175, 75, 115, 169, 192, 80, 178, 174, 179, 181, 97, 184, 155, 107, 109, 154, 128, 102, 114, 172, 122, 171, 81, 139, 91, 158, 165, 65, 123, 167, 112, 89, 170, 69, 124, 153, 195, 93, 120, 176, 131, 166, 77, 60, 96, 138, 135, 134, 94], [39, 47], [156, 66, 35, 72, 145, 151, 141, 36, 147, 37], [38, 51], [116, 2, 95, 188], [22, 0], [17, 7], [56, 159, 146, 137, 130, 149, 164, 152], [45, 8], [62, 48, 186], [28, 148, 160, 33], [113, 79, 92], [90, 53], [110, 4], [87, 74], [98, 49], [61, 6], [41, 73], [27, 12], [40, 70], [84, 11], [30, 9], [42, 52], [63, 10], [21, 1], [117, 50], [32, 14, 108], [103, 46], [44, 64], [180, 143, 168, 13], [19, 54], [55, 15], [43, 5], [86, 3], [82], [20], [26], [111], [25], [16], [59], [29], [106], [34], [58], [31], [24], [23], [18]]</t>
+          <t>[[20, 96, 9, 94, 43], [73, 82, 76, 59, 49, 118], [110, 46, 113, 3], [55, 122, 119, 2, 50], [114, 105, 101, 58, 111, 33], [93, 89, 4, 5, 16], [37, 104, 69, 28, 41], [57, 121, 77, 8, 31], [44, 0, 10, 14, 120], [112, 108, 62, 39], [51, 123, 71, 34], [87, 21, 80, 53, 15], [85, 99, 88, 103, 11], [126, 116, 47, 84], [42, 83, 25, 36], [98, 54, 17], [1, 64, 97, 48], [72, 92, 102, 86], [65, 32], [109, 23], [74, 38], [7, 22, 30], [68, 66], [27, 56], [18, 70, 81], [106, 79], [75, 35], [90], [127, 117], [125], [40, 13, 63], [61], [45, 12, 100], [26, 60], [107, 29], [67], [24, 78], [91], [52, 124], [19], [95, 6], [115]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -584,18 +584,18 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>school1.col.txt</t>
+          <t>miles1500.col</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003123998641967773</v>
+        <v>0.000701904296875</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[127, 356, 200, 1, 354, 339, 50, 213, 194, 39, 228, 115, 135, 199, 98, 170, 352, 209, 240, 361, 161, 283, 8, 12, 315, 235, 314], [110, 355, 326, 49, 270, 35, 379, 104, 163, 15, 133, 131, 187, 266, 141, 308, 312, 193, 175, 139, 284, 137, 234, 103, 136], [37, 173, 263, 64, 51, 185, 108, 130, 85, 215, 156, 313, 87, 132, 21, 327, 353, 192], [257, 168, 293, 189, 375, 226, 107, 22, 43, 56, 378, 287, 184, 186, 346, 155], [252, 149, 350, 236, 38, 62, 358, 134, 167, 282, 154, 182, 382, 140, 20], [307, 274, 276, 212, 219, 112, 223, 60, 4, 322, 105, 360, 280, 380], [259, 332, 281, 145, 75, 275, 89, 172, 138, 99, 206, 111, 311, 202, 381], [203, 191, 109, 297, 25, 318, 48, 121, 10, 262, 166], [365, 220, 58, 17, 180, 0, 341, 55, 162, 286, 211, 255, 7, 101], [300, 362, 277, 53, 3, 118, 242, 238, 337, 147, 128, 30, 116], [371, 370, 216, 2, 384, 84, 117], [232, 279, 151, 24, 123, 260, 294, 306, 359, 65, 5], [292, 86, 142, 78, 271, 11, 221, 264, 31, 54, 153], [363, 309, 158, 94, 114, 159, 357, 349, 146], [295, 256, 278, 204, 9, 157, 41, 241, 319, 348], [248, 67, 303, 102, 207, 296, 47, 14, 316, 268, 225, 289, 29], [367, 188, 210, 261, 28, 129, 96, 222, 46, 291, 70, 247], [88, 351, 143, 231, 205, 32, 97, 335, 224, 177, 190, 71, 63], [40, 330, 77, 267, 106, 160, 258, 72, 321], [79, 338, 195, 197, 176, 52, 198, 265, 285, 243, 27], [305, 334, 68, 196, 91, 269, 42, 208, 33, 317, 165, 113], [302, 340, 254, 100, 323, 230, 183, 290, 120, 343, 227, 57], [368, 377, 169, 229, 26, 328, 6, 126], [373, 83, 19, 150, 251, 61], [246, 69, 66, 34, 301, 164, 329, 288], [374, 237, 148, 13, 239], [333, 124, 320, 93, 80, 214, 298, 152, 272, 336], [244, 74, 18, 178, 345, 347, 95], [119, 174, 383, 73, 325, 249, 342], [201, 245, 218, 171, 92, 76, 81], [59, 125, 304, 16, 217], [179, 364], [273, 250, 181, 310, 299], [253, 331, 23, 122, 36, 44], [372, 82, 369], [366, 376], [344, 90, 233], [45, 324], [144]]</t>
+          <t>[[111, 75, 41], [48, 38, 94], [95, 4], [5, 80], [91, 17], [56, 117, 33, 103], [51, 36, 49], [32, 37, 16], [69, 86], [73, 55, 3], [74, 28, 50], [113, 8, 105], [77, 14], [24, 119, 123], [125, 34], [78, 84], [9, 15], [60, 54, 58], [66, 21, 47], [23, 118, 62], [44, 11, 10], [35, 108, 39], [26, 53], [61, 76], [12, 64, 25], [29, 30, 20], [27, 2], [18], [68, 120, 71], [88, 96], [121], [7], [0, 81], [72], [59, 104], [52, 31], [6, 46], [126], [40, 97], [127], [79, 85], [112], [100], [98], [122], [57, 102], [116], [90], [82, 43], [87], [70], [13], [99], [93], [45], [83], [19], [109], [65], [92], [114], [22], [67], [101], [1], [42], [106], [89], [124], [107], [110], [63], [115]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -604,27 +604,27 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>le450_5a.col</t>
+          <t>myciel3.col.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003692865371704102</v>
+        <v>1.430511474609375e-05</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[12, 106, 309, 446, 249, 356, 287, 208, 320, 414, 350, 83, 370, 176, 369, 430, 274, 160, 367, 361, 380, 64, 5, 278, 114, 297, 122, 190, 167, 448, 139, 449, 104, 254, 201, 75, 21, 289, 24, 443, 172, 77, 344, 107, 195, 74, 230, 385, 229, 184, 49, 216, 168, 69], [105, 444, 422, 310, 354, 379, 407, 43, 265, 163, 292, 94, 335, 217, 241, 158, 405, 403, 324, 3, 319, 85, 372, 244, 92, 138, 378, 40, 113, 329, 247, 71, 154, 136, 51, 225, 269, 425, 192, 228, 44, 198, 37, 214, 152, 19, 435, 397, 82, 53, 290, 395], [159, 183, 161, 325, 377, 432, 60, 300, 419, 96, 27, 264, 65, 358, 412, 199, 346, 383, 351, 338, 242, 84, 127, 392, 32, 119, 61, 387, 41, 399, 353, 363, 267, 174, 283, 352, 164, 30, 389, 31, 328, 148, 232, 126, 360, 277, 118, 281, 55], [4, 374, 416, 98, 146, 260, 112, 427, 215, 286, 45, 420, 316, 222, 243, 26, 140, 8, 224, 212, 177, 14, 196, 268, 411, 17, 341, 6, 171, 394, 347, 393, 312, 270, 178, 375, 135, 330, 424, 305, 180, 246, 70, 336, 256, 10, 80, 382, 303, 251, 437], [334, 431, 238, 248, 52, 331, 99, 404, 237, 134, 36, 57, 311, 386, 123, 187, 428, 129, 400, 11, 302, 226, 58, 143, 233, 279, 441, 166, 366, 381, 100, 321, 391, 271, 169, 348, 1, 276, 396, 426, 231, 221, 339, 327, 266], [371, 227, 93, 368, 245, 275, 185, 340, 343, 317, 62, 147, 409, 282, 207, 97, 22, 175, 234, 406, 299, 150, 16, 50, 364, 7, 162, 28, 434, 142, 115, 151, 103, 333, 280, 308, 54, 130, 273, 29, 342, 108, 376, 388, 87, 170], [337, 294, 86, 362, 0, 63, 102, 191, 76, 34, 345, 59, 384, 42, 296, 262, 66, 442, 193, 408, 272, 131, 288, 88, 318, 447, 332, 357, 128, 116, 423, 202, 153, 295, 124, 203, 301, 398, 149, 257, 18, 81, 157, 304, 373, 132], [194, 204, 25, 189, 240, 9, 141, 390, 315, 90, 38, 218, 213, 110, 421, 155, 205, 20, 298, 133, 33, 355, 47, 440, 68, 306, 445, 263, 79, 415, 307, 314, 78, 210], [186, 252, 439, 121, 209, 165, 72, 206, 250, 15, 95, 211, 223, 235, 101, 56, 125, 402, 188, 145, 111, 401, 326, 179, 91, 236], [410, 293, 436, 239, 291, 137, 255, 253, 2, 181, 322, 73, 197, 182, 120, 313, 39, 284, 258, 349, 67, 219, 200, 259, 117], [23, 417, 323, 173, 429, 89, 438, 433, 365, 285, 48, 46, 13], [413, 35, 144, 156, 261, 359, 109, 418, 220]]</t>
+          <t>[[8, 9, 5, 7, 6], [3, 2, 10], [0, 4], [1]]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -633,27 +633,27 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>huck.col</t>
+          <t>myciel7.col.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001308917999267578</v>
+        <v>0.0005629062652587891</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[[63, 47, 37, 24, 55, 70, 35, 11, 69, 1, 21, 64, 53, 32, 9, 36, 27, 52, 29, 23], [43, 4, 59, 44, 31, 66, 34, 16, 45, 14, 15, 65, 2, 41, 50, 6, 71, 68, 62, 25, 60], [18, 48, 51, 46, 19, 73, 57], [72, 58, 5, 30, 61], [40, 20, 17, 0], [33, 3, 12, 13], [22, 56, 49, 8], [38, 67, 10, 42, 7], [54], [39, 26], [28]]</t>
+          <t>[[28, 111, 122, 25, 52, 184, 183, 103, 187, 75, 181, 124, 136, 29, 63, 158, 114, 125, 39, 178, 120, 134, 166, 168, 76, 175, 150, 131, 123, 113, 84, 72, 135, 173, 160, 169, 31, 88, 177, 129, 102, 79, 182, 87, 78, 185, 32, 40, 89, 167, 172, 126, 83, 165, 77, 179, 42, 176, 138, 43, 90, 41, 137, 86, 127, 171, 147, 161, 30, 149, 174, 118, 133, 36, 186, 180, 170], [18, 157, 85, 38, 121, 73, 163, 12, 156, 148, 101, 162, 154, 159, 19, 37, 65, 66, 112, 109, 17, 64, 82, 153, 14, 107, 35, 155, 108, 130, 116, 132, 59, 61, 139], [10, 46, 97, 21, 93, 60, 11, 47, 0, 141, 68, 2, 95, 144, 152, 58, 106, 188, 49, 142, 57, 105, 13], [8, 24, 119, 71, 9, 117, 115, 56, 55, 151, 164, 140, 143, 6, 48, 1, 53, 96, 104], [44, 34, 67, 51, 99, 74, 20, 146, 23, 81, 110, 62, 15, 4, 91, 27, 70, 16], [69, 26, 128, 50, 3, 145, 45, 22, 33, 80, 98, 92], [5, 100, 189, 7, 94], [190, 54]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -671,18 +671,18 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>le450_15b.col</t>
+          <t>queen11_11.col</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003731966018676758</v>
+        <v>0.0003609657287597656</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[[152, 329, 303, 78, 409, 122, 153, 92, 175, 183, 27, 293, 323, 405, 48, 261, 69, 326, 248, 349, 32, 185, 226, 72, 47, 173, 147, 23, 89, 369, 127, 213, 324, 21, 386, 411, 172, 422, 235, 28, 240, 279, 381, 24, 438, 256, 400, 406, 49, 91, 346, 100, 390, 270], [214, 318, 384, 199, 412, 88, 192, 182, 9, 184, 93, 284, 441, 439, 108, 33, 222, 2, 385, 8, 245, 128, 230, 107, 58, 404, 389, 208, 275, 105, 433, 206, 176, 19, 102, 446, 212, 291, 129, 162, 362, 50], [204, 345, 431, 101, 121, 36, 216, 299, 84, 229, 387, 382, 131, 177, 380, 143, 80, 309, 420, 263, 272, 157, 68, 368, 115, 423, 59, 158, 217, 125, 347, 317, 135, 196, 350, 449, 408, 352, 139, 429, 90, 142, 290], [29, 221, 339, 236, 277, 76, 304, 407, 145, 311, 254, 383, 294, 46, 94, 281, 331, 394, 51, 149, 357, 361, 354, 301, 447, 332, 26, 219, 87, 171], [302, 259, 4, 280, 343, 116, 418, 144, 191, 166, 136, 378, 83, 348, 133, 319, 56, 81, 341, 414, 430, 288, 437, 138, 292, 39, 424, 106, 79, 313], [396, 300, 268, 111, 200, 225, 320, 103, 30, 120, 435, 155, 126, 344, 43, 372, 314, 82, 65, 223, 61, 109, 255, 148, 330], [16, 13, 328, 264, 358, 377, 97, 271, 112, 41, 60, 141, 397, 146, 123, 113, 14, 31, 193, 159, 316, 104, 373, 421], [205, 38, 413, 237, 5, 75, 234, 203, 195, 274, 232, 340, 55, 130, 161, 18, 15, 367, 278, 283, 110, 63, 170, 355], [427, 425, 434, 35, 114, 296, 298, 22, 11, 190, 410, 379, 337, 282, 187, 181, 178, 359, 445, 442, 307, 132, 224], [207, 188, 295, 7, 25, 74, 52, 371, 351, 273, 266, 117, 165, 197, 70, 164, 42, 174, 12, 57, 233], [287, 54, 391, 67, 297, 169, 289, 402, 246, 160, 37, 252, 0, 417, 338, 443, 66, 202, 432, 186, 444], [163, 276, 86, 321, 140, 262, 315, 306, 448, 45, 334, 119, 393, 401, 342, 85, 95, 285, 10], [399, 239, 419, 20, 249, 244, 220, 211, 179, 228, 436, 44, 154, 242, 247, 335, 336, 3, 375], [286, 98, 312, 403, 194, 398, 365, 374, 238, 265, 209, 395, 370, 308, 167, 388, 260, 96], [356, 392, 168, 269, 258, 251, 62, 325, 426, 201, 34, 210, 180, 267, 150], [353, 322, 243, 231, 17, 305, 241, 215, 64, 99, 366, 71, 1], [333, 250, 416, 415, 360, 151, 6, 253, 53], [440, 257, 364, 327, 363, 376, 156, 137, 77, 40], [134, 124, 218, 310, 227, 189, 118], [198, 428, 73]]</t>
+          <t>[[80, 46, 109, 96, 31, 4, 11, 62, 39, 67], [85, 34, 57, 72, 119, 91, 10, 104, 26, 18], [8, 79, 56, 50, 76, 22, 113, 97, 15], [89, 118, 44, 13, 86, 7, 36, 28, 71, 65, 103], [106, 74, 0, 81, 47, 20, 112, 43], [51, 12, 98, 77, 5, 68, 30, 114, 105], [41, 88, 23, 70, 120, 49, 14, 6, 64], [19, 101, 83, 92, 55, 75, 117, 54, 38, 1], [52, 35, 94, 78, 69, 108, 110, 21, 27], [63, 48, 25, 42, 95, 116, 2, 100, 16], [53, 37, 24, 87, 102, 111], [33, 59, 90, 73, 17, 82], [9, 58, 40, 107, 66, 32, 45, 115], [60, 29, 3], [84, 61, 99, 93]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -691,27 +691,27 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>anna.col</t>
+          <t>school1.col.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003261566162109375</v>
+        <v>0.002888917922973633</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[88, 25, 12, 100, 130, 117, 9, 5, 24, 133, 87, 11, 123, 15, 41, 66, 89, 80, 45, 3, 122, 95, 30, 33, 62, 119, 0, 68, 96, 113, 110, 37, 136, 38, 86, 39, 79, 75, 43, 26, 81, 118, 127, 13, 106, 40, 124, 116, 83, 78, 64, 42, 55, 112, 58, 7, 70, 23, 1, 120, 109, 22, 14, 104, 36, 10, 51, 16, 47, 21, 4, 2, 65, 28, 128, 74], [57, 63, 76, 18, 6, 60, 52, 82, 102, 67, 132, 97, 29, 101, 27, 46, 92, 107, 50, 126, 91, 49, 59, 85, 131, 121, 111], [135, 125, 34, 32, 31, 93, 103, 108, 61, 48, 129, 54, 105], [137, 56, 99, 114], [44, 134, 20, 53, 72], [17, 69], [35, 8, 77], [94, 84, 90], [115, 19], [73], [98, 71]]</t>
+          <t>[[266, 359, 356, 128, 152, 308, 211, 104, 234, 43, 135, 155, 354, 4, 180, 141, 85, 192, 184, 186, 112, 312, 352, 137, 56, 270, 315, 136], [208, 263, 247, 302, 171, 327, 134, 190, 138, 13, 161, 187, 379, 240, 193, 28, 98, 235, 39, 360, 201, 103, 283, 26, 149, 139, 314, 284], [287, 342, 267, 41, 218, 170, 256, 59, 101, 361, 54, 321, 108, 148, 294, 378, 185, 131, 10, 345, 84, 212, 313], [87, 325, 293, 60, 95, 337, 274, 228, 21, 113, 1, 175, 115, 276, 353, 132, 12, 280], [252, 242, 157, 355, 343, 174, 2, 357, 51, 382, 229, 99], [368, 236, 358, 32, 97, 162, 47, 117, 169, 213, 194, 269, 381, 68, 196], [306, 241, 231, 220, 91, 159, 35, 338, 107, 158, 380, 326], [371, 336, 72, 311, 316, 278, 206, 272, 214, 183, 226, 254, 55, 178, 109, 140, 124, 64, 94, 89, 298, 333, 259], [83, 50, 19, 344, 253, 37, 341, 351, 58, 163, 114, 133, 286, 224], [255, 34, 365, 202, 75, 363], [317, 335, 5, 221, 110, 154, 71, 181, 42, 151, 167, 332], [204, 40, 222, 383, 277, 209, 73, 264, 328, 350, 7, 116], [239, 237, 25, 160, 8, 29, 377, 296, 262, 111, 0], [323, 364, 74, 18, 100, 165, 203, 244, 340, 347, 227, 9, 120, 146, 290, 79, 57, 230], [373, 374, 372, 362, 369, 370], [102, 126, 282, 348, 303, 210, 156, 14], [219, 225, 82, 271, 38, 77, 216, 168, 52, 142], [366, 329, 11, 66, 246, 189, 86, 33, 69, 164, 118, 288, 125], [233, 123, 90, 182, 260, 65, 273, 279, 249, 384, 304], [17, 15, 207, 130, 301, 197, 195, 319, 145, 166], [245, 22, 300, 46, 281, 275, 172, 153, 61, 93], [232, 76, 3, 150, 24], [88, 297, 324, 188, 205, 334, 289, 23, 331, 45, 268, 67, 173], [179, 49, 78, 291, 320, 48, 121, 44, 6], [27, 177, 20, 258, 62, 63, 243, 53], [367, 96, 305, 292, 70, 129, 261], [295, 330, 143, 223, 217, 106, 322], [248, 198, 265, 376, 375, 81, 257], [309, 349, 92, 127, 285, 318, 199], [119, 299, 36, 105], [122, 191, 80, 30, 16], [215, 238, 147, 176], [144, 307, 346], [250, 200, 310], [251, 31, 339]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -720,27 +720,27 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>miles1000.col</t>
+          <t>school1_nsh.col.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000514984130859375</v>
+        <v>0.002552986145019531</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[98, 119, 12, 80, 120, 28], [26, 105, 111, 16, 50, 81], [51, 64, 118, 58, 47, 55], [57, 32, 69, 62, 76], [93, 77, 56, 20], [92, 73, 123, 71], [27, 34, 43, 8, 59], [9, 96, 53, 10, 102, 94], [95, 6, 108, 4, 33], [75, 15, 25, 35], [78, 37, 39, 22, 49], [7, 2, 46, 21], [54, 40, 13, 3], [89, 29, 103], [44, 79, 14, 84], [67, 30, 17], [42, 60, 88, 11, 41], [127, 117, 86, 48], [106, 124, 36], [82, 121, 116], [122, 97], [115, 109], [90, 31], [74, 38], [91], [110, 72], [19, 107], [126, 18], [52, 63], [83, 113], [68, 101], [125, 0], [112, 104, 66], [65], [23, 100], [45, 70], [85, 5, 99], [61], [87], [24], [114], [1]]</t>
+          <t>[[143, 15, 327, 98, 111, 230, 262, 284, 235, 228, 244, 103, 137, 32, 314, 26, 131, 178, 184, 186, 192, 301, 175, 313, 240, 85, 183, 169, 21], [20, 265, 147, 116, 185, 13, 238, 134, 252, 283, 155, 57, 234, 136, 43, 337, 30, 99, 300, 308, 312, 135, 315, 1, 167], [303, 335, 5, 332, 194, 93, 189, 115, 322, 47, 172, 141, 39, 158], [44, 117, 334, 266, 149, 16, 56, 34, 133, 61, 12, 42, 187, 104, 113, 84, 165, 193, 161], [305, 109, 291, 278, 7, 70, 226, 247, 129, 170, 139, 25, 255, 157, 272], [224, 148, 329, 274, 164, 132, 280, 3, 130, 60, 264, 114], [29, 142, 209, 323, 160, 271, 201, 256, 6, 326, 140, 51, 213], [207, 35, 347, 28, 91, 241, 342, 118, 162], [273, 220, 145, 206, 80, 97, 350, 123, 65, 110, 261, 73, 279], [348, 75, 58, 307, 33, 341, 138, 217, 317, 286, 211, 295, 11, 121, 107], [151, 168, 324, 37, 269, 243, 49], [202, 239, 292, 281, 50, 182, 275, 38, 128, 112], [231, 36, 19, 263, 124, 190, 181, 146, 351], [232, 81, 287, 306, 257, 225, 212, 76, 294, 59, 108, 345, 267, 102, 163, 218, 245], [120, 106, 343, 72, 40, 260, 0, 2, 321, 214, 156, 24], [9, 204, 154, 242, 94, 62, 27, 53, 219, 259, 282], [233, 325, 328, 304, 229, 249, 90, 95], [17, 338, 200, 293, 330, 199, 210, 52, 105, 346, 176, 166, 8], [48, 174, 101, 74, 258, 195, 309, 208, 197], [223, 4, 119, 177, 253, 92, 237, 349], [251, 319, 159, 41, 198, 333, 180, 336], [311, 67, 331, 23, 188, 171, 268, 297, 289], [310, 290, 250, 77, 100, 203, 299, 340, 316], [83, 153, 22, 191, 78, 125], [144, 79, 227, 18, 64, 302], [46, 288, 298, 66, 320, 45, 270], [127, 179, 54, 216, 68, 339, 276], [88, 248, 55, 196, 296, 173, 236], [31, 82, 122, 152, 10], [126, 254, 89, 277, 96], [87, 71, 150, 222], [69, 205, 221, 285, 14, 318], [344, 246, 86], [215, 63]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -749,125 +749,9 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>myciel7.col.txt</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005819797515869141</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[[4, 134, 79, 182, 29, 51, 40, 122, 138, 63, 176, 56, 118, 16, 70, 28, 15, 135, 111, 27, 91, 32, 34, 171, 23, 62, 147, 177, 52, 43, 146, 170, 76, 186, 87, 115, 124, 90, 75, 174, 158, 151, 185, 85, 81, 129, 67, 165, 38, 99, 133, 110, 127, 157, 181, 39, 86, 123, 169, 82, 74, 162, 20, 180], [137, 36, 156, 60, 172, 25, 84, 167, 68, 109, 136, 72, 13, 113, 2, 160, 61, 173, 139, 163, 152, 149, 89, 121, 179, 168, 183, 145, 178, 175, 184, 88, 73, 144, 3, 78, 161, 150, 155, 26, 83, 97, 114, 132, 77, 65, 120, 108, 131, 14, 98, 37, 49, 66, 50], [94, 102, 95, 7, 112, 189, 140, 125, 30, 101, 41, 103, 126, 9, 100, 5, 106, 104], [47, 92, 48, 33, 80, 105, 22, 45, 71, 57, 166, 117, 187, 128, 10, 164, 69, 143, 142], [24, 12, 42, 64, 159, 31, 148, 8, 107, 35, 154, 119, 6, 55, 130, 1, 17, 59, 96, 53, 19], [18, 0, 46, 190, 93, 11, 54, 58], [44, 21, 153, 116], [141, 188]]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>latin_square_10.col.txt</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>143</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02038908004760742</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[[505, 153, 336, 414, 597, 821, 244, 722, 630, 69], [214, 806, 608, 431, 33, 125, 887, 301, 520, 719], [460, 771, 209, 121, 303, 373, 555, 677, 834, 28], [879, 434, 52, 137, 320, 743, 618, 654, 231, 529], [215, 656, 612, 530, 891, 297, 119, 738, 34], [453, 688, 286, 9, 781, 104, 547, 853, 365, 192], [423, 328, 239, 144, 518, 607, 634, 859, 60, 723], [717, 288, 25, 440, 528, 864, 801, 116, 203], [29, 707, 563, 472, 302, 860, 124, 211, 385, 798], [695, 613, 439, 829, 236, 325, 524, 150, 784, 61], [107, 280, 395, 866, 569, 482, 803, 11, 194], [135, 893, 467, 638, 317, 46, 550, 233, 369, 721], [817, 340, 736, 495, 154, 406, 243, 639, 592, 68], [474, 152, 876, 718, 240, 804, 327, 386, 56, 560], [536, 345, 448, 257, 698, 624, 80, 786, 858, 169], [372, 885, 93, 673, 0, 759, 187, 551, 466, 272], [228, 49, 323, 396, 632, 845, 728, 584, 489], [210, 603, 118, 424, 846, 517, 729, 642], [358, 649, 744, 361, 173, 825, 81, 450, 262, 546], [145, 457, 646, 737, 332, 360, 241, 548, 890, 54], [287, 437, 522, 16, 675, 103, 773, 818, 620, 189], [710, 251, 562, 160, 338, 896, 797, 476, 65], [350, 255, 378, 74, 566, 470, 162], [750, 19, 198, 552, 110, 459, 371, 657, 291, 813], [238, 747, 62, 444, 324, 535, 621, 147, 660], [589, 177, 269, 410, 86, 778, 691, 886, 502, 355], [273, 769, 382, 682, 475, 94, 1, 561], [666, 762, 468, 83, 564, 261, 381, 816, 175], [667, 558, 315, 139, 47, 469, 226, 756, 819], [842, 384, 38, 311, 789, 219, 696, 132], [39, 131, 861, 481, 312, 392, 689, 220, 573, 780], [509, 41, 800, 421, 863, 133, 314, 602], [427, 604, 515, 343, 757, 254, 166, 79, 668], [539, 753, 276, 664, 628, 889, 92, 8], [640, 341, 593, 245, 497, 836], [455, 356, 788, 544, 869, 267, 366, 178, 699], [713, 346, 543, 451, 368, 831, 72, 805, 170], [895, 376, 115, 206, 796], [651, 370, 849, 82, 354, 265, 462, 740], [492, 748, 259, 165, 76, 874, 577, 399, 663], [463, 184, 794, 857, 97, 271], [658, 611, 6, 426, 827, 278, 180, 514, 755], [193, 454, 284, 362, 101, 545, 661, 752], [84, 765, 391, 480, 351, 679, 567, 176], [329, 242, 432, 617, 724], [283, 435, 190, 751, 832, 659], [59, 894, 151, 412, 795, 588, 503], [824, 532, 446, 130, 627, 676, 44, 217, 770], [516, 149, 610, 331, 428, 237, 678, 772, 844], [14, 711, 285, 504, 600, 422, 808], [304, 416, 601, 207, 32, 745, 648], [258, 622, 635, 441, 865, 720, 537], [249, 583, 161, 809, 67, 404, 491, 871], [128, 461, 837, 549, 37, 650, 306], [250, 511, 764, 157, 418], [690, 374, 779, 553, 878, 347, 73, 168, 465], [5, 188, 96, 787, 701, 512, 420, 598], [606, 108, 24, 633, 290, 201], [485, 20, 111, 571, 390, 760, 292, 674], [405, 171, 843, 726, 591, 264, 498], [697, 471, 281, 105, 10], [704, 333, 576, 403, 488, 828, 792], [252, 776, 401, 578, 811, 344, 684, 486], [484, 307, 126, 637, 223, 387, 568, 883], [4, 694, 277, 496, 826, 411, 790], [138, 565, 229, 380, 754, 322], [430, 854, 51, 706, 142], [357, 398, 266, 85, 652, 581, 490], [671, 542, 18, 867, 363], [833, 533, 348, 442, 734, 163], [582, 703, 235, 58, 799, 330, 487], [812, 383, 225, 777, 318, 140], [195, 877, 282, 100, 407, 501, 13, 741], [609, 181, 275, 761], [339, 665, 408, 897, 156, 590], [782, 687, 438, 246, 525, 70, 159], [521, 763, 197, 899, 15, 102], [852, 50, 143, 508, 321, 715], [680, 559, 298, 473, 212, 766], [705, 88, 839, 605, 353, 179], [898, 48, 136, 735, 388, 647], [527, 739, 89, 856, 352], [464, 141, 783, 230, 375], [880, 91, 3, 186], [216, 309, 693, 615, 43], [847, 66, 247, 775, 334], [534, 167, 349], [862, 55, 148, 556, 670], [585, 196, 700, 279, 882], [830, 106, 506], [445, 208, 120, 299, 623, 820, 758, 35], [27, 868, 367, 708, 300], [319, 636, 570, 483], [164, 850, 742, 599, 78, 256], [523, 114, 791, 296, 199], [45, 686, 316, 540, 227], [393, 274, 479, 2], [36, 541, 224, 683, 308, 767, 458, 364], [379, 881, 213, 305, 645], [587, 500, 785, 221, 40], [415, 218, 313, 127, 835], [631, 554, 725, 117], [838, 507, 182, 793, 595, 270], [513, 815, 807, 134, 42], [873, 112, 419, 204, 594, 681, 23, 510], [614, 716, 98, 7], [477, 310, 733, 814], [557, 655, 746, 146], [848, 526, 90, 730, 183, 433], [870, 619, 653, 185], [685, 71, 625, 447, 337, 822], [268, 417, 359, 87, 174], [158, 892, 494, 400], [205, 26, 768], [709, 538, 326, 449, 875], [727, 99, 574], [662, 519, 129, 872], [712, 30, 823, 580], [123, 855, 402], [234, 443, 626, 531], [774, 200, 113, 21], [596, 672], [669, 841, 191, 436], [397, 263, 172, 579, 731], [499, 95, 586], [394, 57, 478, 575], [377, 222], [692, 616, 122], [425, 232, 888], [493, 335, 749, 884], [202, 572, 293, 109, 643], [644, 31, 732], [260, 75, 389, 342], [641, 294, 452], [295, 714, 413, 22], [53, 851], [802, 63, 248], [64, 840, 155], [629, 17], [12, 702], [456, 289], [253, 429], [810, 77, 409]]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>97</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>jean.col.txt</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0001537799835205078</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[[62, 40, 6, 42, 69, 50, 75, 74, 57, 70, 19, 35, 55, 59, 45, 31, 66, 10, 58, 30, 0, 61, 17, 22, 48, 23, 60, 64, 52, 11, 79, 51, 73, 20], [78, 47, 72, 9, 27, 44, 46, 53, 77, 13, 25, 12, 7, 41], [14, 34, 29, 39, 16, 49, 63, 1], [15, 33, 24, 36], [56, 18, 28, 68, 21], [71, 2, 76, 38], [67, 54, 26, 4], [8, 43, 5, 32], [3, 37], [65]]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>school1_nsh.col.txt</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>34</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.002497196197509766</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[[218, 242, 283, 204, 277, 73, 136, 26, 264, 85, 98, 43, 312, 161, 308, 9, 131, 315, 187, 201, 116, 175, 141, 228, 103, 193, 235, 21, 327, 240], [297, 168, 272, 111, 50, 303, 97, 194, 334, 137, 313, 234, 160, 133, 284, 12, 331, 135, 1, 314], [250, 77, 209, 258, 241, 337, 189, 13, 184, 32, 158, 104, 169, 140, 114, 118, 39, 186, 192, 299], [78, 151, 170, 324, 2, 156, 72, 49, 23, 132, 139, 115, 117], [41, 60, 148, 300, 48, 63, 7, 101, 157, 30, 167], [246, 164, 22, 11, 351, 288, 221, 270, 66, 149, 181, 134, 99, 56, 113, 266, 42, 326, 155], [102, 89, 108, 76, 202, 206, 294, 321, 54, 212, 185, 225, 61], [190, 25, 222, 203, 220, 106, 268, 8, 107, 172], [232, 27, 24, 344, 10, 342, 162, 81], [259, 122, 251, 31, 178, 348, 211, 84, 112, 6, 138], [224, 322, 254, 34, 28, 282, 130, 62, 183, 333], [233, 65, 90, 5, 95, 325, 328, 304, 260, 110, 279, 229, 182, 123, 249, 273, 350], [74, 319, 142, 255, 199, 309, 208, 40, 105, 165], [307, 46, 261, 287, 336, 87, 267, 92, 332, 171, 59], [265, 35, 310, 293, 205, 285, 243, 195, 262, 197, 346, 45, 174], [82, 223, 317, 292, 215, 150, 154, 219], [126, 152, 55, 274, 146, 75, 276], [245, 121, 226, 163, 58, 341, 286, 15, 0, 52, 216, 256], [253, 311, 51, 343, 120, 339, 214, 4, 290, 57], [147, 239, 93, 281, 16, 128, 275, 153, 305], [318, 301, 231, 71, 207, 14, 145, 159, 335, 38], [17, 53, 329, 109, 64, 227, 129, 180, 278], [295, 188, 88, 67, 217, 320, 44, 289], [70, 144, 247, 316, 291, 94, 302, 198, 79], [36, 244, 83, 347, 345, 340, 96, 263], [338, 127, 143, 210, 166, 200, 91, 177], [236, 47, 213, 323, 248, 100, 68, 269, 296, 29, 196], [125, 86, 271, 33, 69, 176], [18, 173, 237, 349, 119], [19, 3, 124, 37, 230], [257, 306, 280, 298], [179, 80, 238], [330, 191], [252, 20]]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>21</v>
-      </c>
-      <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
